--- a/data/financial_statements/soci/RHI.xlsx
+++ b/data/financial_statements/soci/RHI.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1833000000</v>
+        <v>1833455000</v>
       </c>
       <c r="C2">
-        <v>1863000000</v>
+        <v>1862827000</v>
       </c>
       <c r="D2">
-        <v>1815000000</v>
+        <v>1814834000</v>
       </c>
       <c r="E2">
-        <v>1770000000</v>
+        <v>1769917000</v>
       </c>
       <c r="F2">
-        <v>1713000000</v>
+        <v>1712566000</v>
       </c>
       <c r="G2">
         <v>1580581000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.0701</v>
+        <v>0.0706</v>
       </c>
       <c r="C3">
-        <v>0.1787</v>
+        <v>0.1786</v>
       </c>
       <c r="D3">
-        <v>0.2979</v>
+        <v>0.2978</v>
       </c>
       <c r="E3">
-        <v>0.3573</v>
+        <v>0.3572</v>
       </c>
       <c r="F3">
-        <v>0.4396</v>
+        <v>0.4393</v>
       </c>
       <c r="G3">
         <v>0.4261</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1058000000</v>
+        <v>1045846000</v>
       </c>
       <c r="C4">
-        <v>1060000000</v>
+        <v>1047280000</v>
       </c>
       <c r="D4">
-        <v>1054000000</v>
+        <v>1042988000</v>
       </c>
       <c r="E4">
-        <v>1079000000</v>
+        <v>1025799000</v>
       </c>
       <c r="F4">
-        <v>1001000000</v>
+        <v>987239000</v>
       </c>
       <c r="G4">
         <v>915709000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>775000000</v>
+        <v>787609000</v>
       </c>
       <c r="C5">
-        <v>803000000</v>
+        <v>815547000</v>
       </c>
       <c r="D5">
-        <v>760000000</v>
+        <v>771845900</v>
       </c>
       <c r="E5">
-        <v>691000000</v>
+        <v>744117800</v>
       </c>
       <c r="F5">
-        <v>712000000</v>
+        <v>725327000</v>
       </c>
       <c r="G5">
         <v>664872100</v>
@@ -1096,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>548579000</v>
@@ -1112,7 +1223,7 @@
         <v>544551000</v>
       </c>
       <c r="F6">
-        <v>483000000</v>
+        <v>495576000</v>
       </c>
       <c r="G6">
         <v>488093000</v>
@@ -1218,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>223278100</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,8 +1462,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2000000</v>
@@ -1380,23 +1491,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-15000000</v>
+        <v>2346000</v>
       </c>
       <c r="C10">
-        <v>-66000000</v>
+        <v>718000</v>
       </c>
       <c r="D10">
-        <v>-30000000</v>
+        <v>166000</v>
       </c>
       <c r="E10">
-        <v>23000000</v>
+        <v>65000</v>
       </c>
       <c r="F10">
-        <v>-2000000</v>
+        <v>238000</v>
       </c>
       <c r="G10">
         <v>-151000</v>
@@ -1502,23 +1613,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>226000000</v>
+        <v>225624000</v>
       </c>
       <c r="C11">
-        <v>241000000</v>
+        <v>240833000</v>
       </c>
       <c r="D11">
-        <v>227000000</v>
+        <v>227400000</v>
       </c>
       <c r="E11">
-        <v>222000000</v>
+        <v>222154000</v>
       </c>
       <c r="F11">
-        <v>228000000</v>
+        <v>227658000</v>
       </c>
       <c r="G11">
         <v>203862000</v>
@@ -1624,23 +1735,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>59000000</v>
+        <v>59418000</v>
       </c>
       <c r="C12">
-        <v>65000000</v>
+        <v>65012000</v>
       </c>
       <c r="D12">
-        <v>59000000</v>
+        <v>59161000</v>
       </c>
       <c r="E12">
-        <v>54000000</v>
+        <v>54210000</v>
       </c>
       <c r="F12">
-        <v>57000000</v>
+        <v>56787000</v>
       </c>
       <c r="G12">
         <v>54649000</v>
@@ -1746,8 +1857,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>166206000</v>
@@ -1868,8 +1979,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -1882,23 +1993,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>166000000</v>
+        <v>166206000</v>
       </c>
       <c r="C15">
-        <v>176000000</v>
+        <v>175821000</v>
       </c>
       <c r="D15">
-        <v>168000000</v>
+        <v>168239000</v>
       </c>
       <c r="E15">
-        <v>168000000</v>
+        <v>167944000</v>
       </c>
       <c r="F15">
-        <v>171000000</v>
+        <v>170871000</v>
       </c>
       <c r="G15">
         <v>149213000</v>
@@ -2004,23 +2115,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
+        <v>1.54</v>
+      </c>
+      <c r="C16">
+        <v>1.62</v>
+      </c>
+      <c r="D16">
+        <v>1.54</v>
+      </c>
+      <c r="E16">
         <v>1.53</v>
       </c>
-      <c r="C16">
-        <v>1.6</v>
-      </c>
-      <c r="D16">
-        <v>1.52</v>
-      </c>
-      <c r="E16">
-        <v>1.51</v>
-      </c>
       <c r="F16">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G16">
         <v>1.33</v>
@@ -2126,8 +2237,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1.53</v>
@@ -2248,23 +2359,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>108000000</v>
+        <v>107855000</v>
       </c>
       <c r="C18">
-        <v>109000000</v>
+        <v>108833000</v>
       </c>
       <c r="D18">
-        <v>109000000</v>
+        <v>109218000</v>
       </c>
       <c r="E18">
-        <v>109000000</v>
+        <v>110482000</v>
       </c>
       <c r="F18">
-        <v>110000000</v>
+        <v>110176000</v>
       </c>
       <c r="G18">
         <v>110861000</v>
@@ -2370,23 +2481,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>109000000</v>
+        <v>108618000</v>
       </c>
       <c r="C19">
-        <v>110000000</v>
+        <v>109696000</v>
       </c>
       <c r="D19">
-        <v>111000000</v>
+        <v>110591000</v>
       </c>
       <c r="E19">
-        <v>111000000</v>
+        <v>111718000</v>
       </c>
       <c r="F19">
-        <v>111000000</v>
+        <v>111490000</v>
       </c>
       <c r="G19">
         <v>111889000</v>
@@ -2492,23 +2603,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.4228</v>
+        <v>0.4296</v>
       </c>
       <c r="C20">
-        <v>0.431</v>
+        <v>0.4378</v>
       </c>
       <c r="D20">
-        <v>0.4187</v>
+        <v>0.4253</v>
       </c>
       <c r="E20">
-        <v>0.3904</v>
+        <v>0.4204</v>
       </c>
       <c r="F20">
-        <v>0.4156</v>
+        <v>0.4235</v>
       </c>
       <c r="G20">
         <v>0.4207</v>
@@ -2614,8 +2725,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.1218</v>
@@ -2736,23 +2847,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.1233</v>
+        <v>0.1231</v>
       </c>
       <c r="C22">
-        <v>0.1294</v>
+        <v>0.1293</v>
       </c>
       <c r="D22">
-        <v>0.1251</v>
+        <v>0.1253</v>
       </c>
       <c r="E22">
-        <v>0.1254</v>
+        <v>0.1255</v>
       </c>
       <c r="F22">
-        <v>0.1331</v>
+        <v>0.1329</v>
       </c>
       <c r="G22">
         <v>0.129</v>
@@ -2858,17 +2969,17 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0906</v>
+        <v>0.0907</v>
       </c>
       <c r="C23">
-        <v>0.0945</v>
+        <v>0.0944</v>
       </c>
       <c r="D23">
-        <v>0.0926</v>
+        <v>0.0927</v>
       </c>
       <c r="E23">
         <v>0.0949</v>
@@ -2980,23 +3091,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>251000000</v>
+        <v>242956100</v>
       </c>
       <c r="C24">
-        <v>318000000</v>
+        <v>259049000</v>
       </c>
       <c r="D24">
-        <v>269000000</v>
+        <v>245844000</v>
       </c>
       <c r="E24">
-        <v>252000000</v>
+        <v>241526900</v>
       </c>
       <c r="F24">
-        <v>243000000</v>
+        <v>248236000</v>
       </c>
       <c r="G24">
         <v>221738200</v>
@@ -3102,8 +3213,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>223278100</v>
@@ -3224,8 +3335,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>166206000</v>
@@ -3346,23 +3457,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>166000000</v>
+        <v>166206000</v>
       </c>
       <c r="C27">
-        <v>176000000</v>
+        <v>175821000</v>
       </c>
       <c r="D27">
-        <v>168000000</v>
+        <v>168239000</v>
       </c>
       <c r="E27">
-        <v>168000000</v>
+        <v>167944000</v>
       </c>
       <c r="F27">
-        <v>171000000</v>
+        <v>170871000</v>
       </c>
       <c r="G27">
         <v>149213000</v>
@@ -3468,8 +3579,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1.541</v>
@@ -3590,8 +3701,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.5302</v>
@@ -3712,8 +3823,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.541</v>
@@ -3834,8 +3945,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.5302</v>
@@ -3956,8 +4067,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>108618000</v>
@@ -4078,23 +4189,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0.1369</v>
+        <v>0.1325</v>
       </c>
       <c r="C33">
-        <v>0.1707</v>
+        <v>0.1391</v>
       </c>
       <c r="D33">
-        <v>0.1482</v>
+        <v>0.1355</v>
       </c>
       <c r="E33">
-        <v>0.1424</v>
+        <v>0.1365</v>
       </c>
       <c r="F33">
-        <v>0.1419</v>
+        <v>0.1449</v>
       </c>
       <c r="G33">
         <v>0.1403</v>
@@ -4200,11 +4311,11 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.0979</v>
+        <v>0.0978</v>
       </c>
       <c r="C34">
         <v>0.125</v>
@@ -4213,10 +4324,10 @@
         <v>0.0381</v>
       </c>
       <c r="E34">
-        <v>0.0818</v>
+        <v>0.0819</v>
       </c>
       <c r="F34">
-        <v>0.1312</v>
+        <v>0.1313</v>
       </c>
       <c r="G34">
         <v>0.1047</v>
